--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.linkage.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.linkage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CABCB0-926B-0B4D-A54D-27927636D597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14689B-32C2-084B-9E26-37E87E703542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51900" yWindow="-2420" windowWidth="44600" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -489,22 +489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/linkage/type/:type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/linkage/v/source/:key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/linkage/v/target/:key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/linkage/b/:key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/linkage/b/batch/save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,6 +506,22 @@
   </si>
   <si>
     <t>/api/linkage/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/linkages/type/:type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/linkages/v/target/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/linkages/v/source/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/linkages/b/:key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1159,7 @@
   <dimension ref="A2:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1169,7 +1169,7 @@
     <col min="3" max="3" width="54.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="14" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -1489,7 +1489,7 @@
         <v>97</v>
       </c>
       <c r="B22" s="16" t="str">
-        <f>A37</f>
+        <f t="shared" ref="B22:B31" si="0">A37</f>
         <v>0b7ab42f-51ec-48ff-98b5-aabaa516b157</v>
       </c>
       <c r="C22" s="16" t="str">
@@ -1503,7 +1503,7 @@
         <v>28</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>77</v>
@@ -1518,11 +1518,11 @@
         <v>98</v>
       </c>
       <c r="B23" s="16" t="str">
-        <f>A38</f>
+        <f t="shared" si="0"/>
         <v>4ac1cfcb-b624-4f87-9e6d-35986a4fc471</v>
       </c>
       <c r="C23" s="16" t="str">
-        <f t="shared" ref="C23:C25" si="0">A$13</f>
+        <f t="shared" ref="C23:C25" si="1">A$13</f>
         <v>765bcce7-d186-4945-85d1-4e1ff0a551fb</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -1532,7 +1532,7 @@
         <v>28</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>78</v>
@@ -1547,11 +1547,11 @@
         <v>99</v>
       </c>
       <c r="B24" s="16" t="str">
-        <f>A39</f>
+        <f t="shared" si="0"/>
         <v>2c039b28-258d-4774-99ee-874c04cdf50f</v>
       </c>
       <c r="C24" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>765bcce7-d186-4945-85d1-4e1ff0a551fb</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -1561,7 +1561,7 @@
         <v>28</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>79</v>
@@ -1576,11 +1576,11 @@
         <v>100</v>
       </c>
       <c r="B25" s="16" t="str">
-        <f>A40</f>
+        <f t="shared" si="0"/>
         <v>998cc262-5359-438e-9e17-4c0d22d0466f</v>
       </c>
       <c r="C25" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>765bcce7-d186-4945-85d1-4e1ff0a551fb</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -1590,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>80</v>
@@ -1605,7 +1605,7 @@
         <v>101</v>
       </c>
       <c r="B26" s="16" t="str">
-        <f>A41</f>
+        <f t="shared" si="0"/>
         <v>1b323e24-dfd2-4cfb-b18f-6707ada83070</v>
       </c>
       <c r="C26" s="16" t="str">
@@ -1619,7 +1619,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>81</v>
@@ -1634,7 +1634,7 @@
         <v>102</v>
       </c>
       <c r="B27" s="16" t="str">
-        <f>A42</f>
+        <f t="shared" si="0"/>
         <v>5d2acdee-975b-4915-9abf-5126481399eb</v>
       </c>
       <c r="C27" s="16" t="str">
@@ -1648,7 +1648,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>82</v>
@@ -1663,7 +1663,7 @@
         <v>103</v>
       </c>
       <c r="B28" s="16" t="str">
-        <f>A43</f>
+        <f t="shared" si="0"/>
         <v>36f22038-9c13-4098-aebe-26fe36e7c9e4</v>
       </c>
       <c r="C28" s="16" t="str">
@@ -1677,7 +1677,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>83</v>
@@ -1692,7 +1692,7 @@
         <v>104</v>
       </c>
       <c r="B29" s="16" t="str">
-        <f>A44</f>
+        <f t="shared" si="0"/>
         <v>b66192a9-3dd2-460d-ab3d-eb626778c58d</v>
       </c>
       <c r="C29" s="16" t="str">
@@ -1706,7 +1706,7 @@
         <v>29</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>84</v>
@@ -1721,7 +1721,7 @@
         <v>105</v>
       </c>
       <c r="B30" s="16" t="str">
-        <f>A45</f>
+        <f t="shared" si="0"/>
         <v>e819911e-0fc9-4164-b232-964ac9b89c83</v>
       </c>
       <c r="C30" s="16" t="str">
@@ -1735,7 +1735,7 @@
         <v>28</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>85</v>
@@ -1750,7 +1750,7 @@
         <v>106</v>
       </c>
       <c r="B31" s="16" t="str">
-        <f>A46</f>
+        <f t="shared" si="0"/>
         <v>b6a9338f-7166-44c4-9f69-2924d3ef0fe7</v>
       </c>
       <c r="C31" s="16" t="str">
@@ -1764,7 +1764,7 @@
         <v>131</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>86</v>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.linkage.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.linkage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14689B-32C2-084B-9E26-37E87E703542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A83ECE5-F67A-3344-859E-FBA50C4C03F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51900" yWindow="-2420" windowWidth="44600" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -509,19 +509,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/linkages/type/:type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/linkages/v/target/:key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/linkages/v/source/:key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/linkages/b/:key</t>
+    <t>/api/linkage/type/:type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/linkage/v/target/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/linkage/v/source/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/linkage/b/:key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1159,7 @@
   <dimension ref="A2:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.linkage.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.linkage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A83ECE5-F67A-3344-859E-FBA50C4C03F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF171A92-38C9-D54E-9DAB-3CF4DA75A21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51900" yWindow="-2420" windowWidth="44600" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="149">
   <si>
     <t>key</t>
   </si>
@@ -523,6 +523,36 @@
   <si>
     <t>/api/linkage/b/:key</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.linkage.b.sync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eb19d149-b7ca-45b9-92bc-d2f9e470ccde</t>
+  </si>
+  <si>
+    <t>act.linkage.b.sync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/linkage/b/sync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29032f42-7aeb-497e-8e75-6b74c50af36c</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K48"/>
+  <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1409,7 +1439,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1456,7 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
@@ -1455,7 +1485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
@@ -1484,12 +1514,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B22" s="16" t="str">
-        <f t="shared" ref="B22:B31" si="0">A37</f>
+        <f>A38</f>
         <v>0b7ab42f-51ec-48ff-98b5-aabaa516b157</v>
       </c>
       <c r="C22" s="16" t="str">
@@ -1513,16 +1543,16 @@
       </c>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B23" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>A39</f>
         <v>4ac1cfcb-b624-4f87-9e6d-35986a4fc471</v>
       </c>
       <c r="C23" s="16" t="str">
-        <f t="shared" ref="C23:C25" si="1">A$13</f>
+        <f t="shared" ref="C23:C25" si="0">A$13</f>
         <v>765bcce7-d186-4945-85d1-4e1ff0a551fb</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -1542,16 +1572,16 @@
       </c>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="16" t="str">
+        <f>A40</f>
+        <v>2c039b28-258d-4774-99ee-874c04cdf50f</v>
+      </c>
+      <c r="C24" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>2c039b28-258d-4774-99ee-874c04cdf50f</v>
-      </c>
-      <c r="C24" s="16" t="str">
-        <f t="shared" si="1"/>
         <v>765bcce7-d186-4945-85d1-4e1ff0a551fb</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -1571,16 +1601,16 @@
       </c>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="16" t="str">
+        <f>A41</f>
+        <v>998cc262-5359-438e-9e17-4c0d22d0466f</v>
+      </c>
+      <c r="C25" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>998cc262-5359-438e-9e17-4c0d22d0466f</v>
-      </c>
-      <c r="C25" s="16" t="str">
-        <f t="shared" si="1"/>
         <v>765bcce7-d186-4945-85d1-4e1ff0a551fb</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -1600,12 +1630,12 @@
       </c>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B26" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>A42</f>
         <v>1b323e24-dfd2-4cfb-b18f-6707ada83070</v>
       </c>
       <c r="C26" s="16" t="str">
@@ -1629,159 +1659,179 @@
       </c>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="B27" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>5d2acdee-975b-4915-9abf-5126481399eb</v>
+        <f>A43</f>
+        <v>eb19d149-b7ca-45b9-92bc-d2f9e470ccde</v>
       </c>
       <c r="C27" s="16" t="str">
         <f>A$15</f>
         <v>7917ddf8-51de-4344-b6fa-9a93ed1c3cfa</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="H27" s="12">
         <v>4</v>
       </c>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>36f22038-9c13-4098-aebe-26fe36e7c9e4</v>
+        <f t="shared" ref="B28:B32" si="1">A44</f>
+        <v>5d2acdee-975b-4915-9abf-5126481399eb</v>
       </c>
       <c r="C28" s="16" t="str">
-        <f>A$14</f>
-        <v>90ff5672-0238-4281-9be7-52b7b9336116</v>
+        <f>A$15</f>
+        <v>7917ddf8-51de-4344-b6fa-9a93ed1c3cfa</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" s="12">
         <v>4</v>
       </c>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>b66192a9-3dd2-460d-ab3d-eb626778c58d</v>
+        <f t="shared" si="1"/>
+        <v>36f22038-9c13-4098-aebe-26fe36e7c9e4</v>
       </c>
       <c r="C29" s="16" t="str">
         <f>A$14</f>
         <v>90ff5672-0238-4281-9be7-52b7b9336116</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="12">
         <v>4</v>
       </c>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>b66192a9-3dd2-460d-ab3d-eb626778c58d</v>
+      </c>
+      <c r="C30" s="16" t="str">
+        <f>A$14</f>
+        <v>90ff5672-0238-4281-9be7-52b7b9336116</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="12">
+        <v>4</v>
+      </c>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="B31" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>e819911e-0fc9-4164-b232-964ac9b89c83</v>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C31" s="16" t="str">
         <f>A$13</f>
         <v>765bcce7-d186-4945-85d1-4e1ff0a551fb</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F31" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G31" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H31" s="12">
         <v>1</v>
       </c>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="10" t="s">
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="B32" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>b6a9338f-7166-44c4-9f69-2924d3ef0fe7</v>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C32" s="16" t="str">
         <f>A$16</f>
         <v>21f40552-0827-4cb7-8f62-bb8a2975851d</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F32" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G32" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H32" s="12">
         <v>12</v>
       </c>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="4"/>
-      <c r="K32" s="14"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="14"/>
@@ -1793,131 +1843,115 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="4"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C35" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="5" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H36" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I36" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D37" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I37" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="12">
-        <v>1</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>69</v>
@@ -1930,21 +1964,19 @@
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>69</v>
@@ -1962,16 +1994,16 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>69</v>
@@ -1989,16 +2021,16 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>69</v>
@@ -2007,7 +2039,7 @@
         <v>44</v>
       </c>
       <c r="G41" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -2016,16 +2048,16 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>69</v>
@@ -2043,16 +2075,16 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="10" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>69</v>
@@ -2070,16 +2102,16 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>69</v>
@@ -2097,16 +2129,16 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>69</v>
@@ -2115,7 +2147,7 @@
         <v>44</v>
       </c>
       <c r="G45" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -2124,16 +2156,16 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>69</v>
@@ -2142,7 +2174,7 @@
         <v>44</v>
       </c>
       <c r="G46" s="12">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -2150,27 +2182,81 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="4"/>
-      <c r="K47" s="14"/>
+      <c r="A47" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="12">
+        <v>1</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="14"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="K48" s="14"/>
+      <c r="A48" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="12">
+        <v>12</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="4"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="14"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="K50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.linkage.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.linkage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF171A92-38C9-D54E-9DAB-3CF4DA75A21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FEFC20-E68B-8740-AA5F-5349DEB849AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51900" yWindow="-2420" windowWidth="44600" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -548,11 +548,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/linkage/b/sync</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>29032f42-7aeb-497e-8e75-6b74c50af36c</t>
+  </si>
+  <si>
+    <t>/api/linkage/sync/b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1189,7 +1189,7 @@
   <dimension ref="A2:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1519,7 +1519,7 @@
         <v>97</v>
       </c>
       <c r="B22" s="16" t="str">
-        <f>A38</f>
+        <f t="shared" ref="B22:B27" si="0">A38</f>
         <v>0b7ab42f-51ec-48ff-98b5-aabaa516b157</v>
       </c>
       <c r="C22" s="16" t="str">
@@ -1548,11 +1548,11 @@
         <v>98</v>
       </c>
       <c r="B23" s="16" t="str">
-        <f>A39</f>
+        <f t="shared" si="0"/>
         <v>4ac1cfcb-b624-4f87-9e6d-35986a4fc471</v>
       </c>
       <c r="C23" s="16" t="str">
-        <f t="shared" ref="C23:C25" si="0">A$13</f>
+        <f t="shared" ref="C23:C25" si="1">A$13</f>
         <v>765bcce7-d186-4945-85d1-4e1ff0a551fb</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -1577,11 +1577,11 @@
         <v>99</v>
       </c>
       <c r="B24" s="16" t="str">
-        <f>A40</f>
+        <f t="shared" si="0"/>
         <v>2c039b28-258d-4774-99ee-874c04cdf50f</v>
       </c>
       <c r="C24" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>765bcce7-d186-4945-85d1-4e1ff0a551fb</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -1606,11 +1606,11 @@
         <v>100</v>
       </c>
       <c r="B25" s="16" t="str">
-        <f>A41</f>
+        <f t="shared" si="0"/>
         <v>998cc262-5359-438e-9e17-4c0d22d0466f</v>
       </c>
       <c r="C25" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>765bcce7-d186-4945-85d1-4e1ff0a551fb</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -1635,7 +1635,7 @@
         <v>101</v>
       </c>
       <c r="B26" s="16" t="str">
-        <f>A42</f>
+        <f t="shared" si="0"/>
         <v>1b323e24-dfd2-4cfb-b18f-6707ada83070</v>
       </c>
       <c r="C26" s="16" t="str">
@@ -1661,10 +1661,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="16" t="str">
-        <f>A43</f>
+        <f t="shared" si="0"/>
         <v>eb19d149-b7ca-45b9-92bc-d2f9e470ccde</v>
       </c>
       <c r="C27" s="16" t="str">
@@ -1678,7 +1678,7 @@
         <v>146</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>141</v>
@@ -1693,7 +1693,7 @@
         <v>102</v>
       </c>
       <c r="B28" s="16" t="str">
-        <f t="shared" ref="B28:B32" si="1">A44</f>
+        <f t="shared" ref="B28:B32" si="2">A44</f>
         <v>5d2acdee-975b-4915-9abf-5126481399eb</v>
       </c>
       <c r="C28" s="16" t="str">
@@ -1722,7 +1722,7 @@
         <v>103</v>
       </c>
       <c r="B29" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36f22038-9c13-4098-aebe-26fe36e7c9e4</v>
       </c>
       <c r="C29" s="16" t="str">
@@ -1751,7 +1751,7 @@
         <v>104</v>
       </c>
       <c r="B30" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>b66192a9-3dd2-460d-ab3d-eb626778c58d</v>
       </c>
       <c r="C30" s="16" t="str">
@@ -1780,7 +1780,7 @@
         <v>105</v>
       </c>
       <c r="B31" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>e819911e-0fc9-4164-b232-964ac9b89c83</v>
       </c>
       <c r="C31" s="16" t="str">
@@ -1809,7 +1809,7 @@
         <v>106</v>
       </c>
       <c r="B32" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>b6a9338f-7166-44c4-9f69-2924d3ef0fe7</v>
       </c>
       <c r="C32" s="16" t="str">
